--- a/test/test_github.xlsx
+++ b/test/test_github.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>Test1</t>
   </si>
@@ -54,6 +54,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,7 +126,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,10 +213,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -292,52 +293,35 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1"/>
       <c r="C13" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-      <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
